--- a/Aikajana17012026.xlsx
+++ b/Aikajana17012026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvuor\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBCB06B6-8CF1-445D-B718-7C5D8085C7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE256C5-3BFF-46F2-87DC-15DBE24BD1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43D602E7-6317-49C5-8E93-4CD4C4CD5609}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <r>
       <t>Riihimäki–Pietari-rautatie valmistuu.</t>
@@ -354,10 +354,13 @@
     <t>Jaakosta tulee lautamies</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>Vuosi</t>
+  </si>
+  <si>
+    <t>Sarake_B</t>
+  </si>
+  <si>
+    <t>Sarake_C</t>
   </si>
 </sst>
 </file>
@@ -753,159 +756,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B348F04E-55F9-451F-932D-DABFC14C3235}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="51" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1870</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="51" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1871</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1872</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1873</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1874</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1875</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1876</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1877</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1878</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1879</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1880</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1881</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="51" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1882</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1883</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1884</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="51" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1885</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="51" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1886</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1887</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1888</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="51" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1889</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>31</v>
       </c>
     </row>
